--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NBC78-EQUIPO BASICO 4.5 # 4.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NBC78-EQUIPO BASICO 4.5 # 4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARCHIVOS COMPARTIDOS ORTOMAX BODEGA\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8563A8-FD35-4929-8375-3E6BD10E92BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6255E083-49AF-40B3-894A-EB9A6030070A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5873B589-3BA9-4C6D-8C7E-4A65FAEF9DF8}"/>
   </bookViews>
@@ -166,14 +166,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="165" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -407,61 +407,61 @@
   <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -574,10 +574,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -586,10 +586,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -735,9 +735,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -775,7 +775,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -881,7 +881,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1023,7 +1023,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1033,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4479369-FA05-452D-B46B-F701C484A741}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="30" customHeight="1"/>
@@ -1462,7 +1462,8 @@
     </row>
     <row r="44" spans="2:3" ht="30" customHeight="1">
       <c r="B44" s="37">
-        <v>22</v>
+        <f>SUM(B27:B43)</f>
+        <v>24</v>
       </c>
       <c r="C44" s="34"/>
     </row>
